--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D4332-5B30-4331-A901-F27E3639628C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C36CEB8-2F2E-4345-92D0-E566548E24B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="240" windowWidth="21915" windowHeight="14910" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="3975" yWindow="630" windowWidth="20655" windowHeight="13650" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -99,12 +99,24 @@
   <si>
     <t>OSCake.log</t>
   </si>
+  <si>
+    <t>scannerArchive/*</t>
+  </si>
+  <si>
+    <t>scannerStorage/*</t>
+  </si>
+  <si>
+    <t>(see ort.conf)</t>
+  </si>
+  <si>
+    <t>(curation directory+store)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +134,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -148,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -158,6 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -402,9 +423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -419,8 +440,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5346700" y="3105150"/>
-          <a:ext cx="88900" cy="762000"/>
+          <a:off x="1694070" y="3504924"/>
+          <a:ext cx="70126" cy="1017380"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -843,11 +864,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -864,8 +885,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7620000" y="2387600"/>
-          <a:ext cx="5537200" cy="6350"/>
+          <a:off x="2401957" y="2741543"/>
+          <a:ext cx="3155673" cy="24848"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1391,6 +1412,369 @@
         <a:ln w="22225">
           <a:tailEnd type="arrow" w="lg" len="lg"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>210379</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Gerader Verbinder 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0D7192-F968-4BA4-84FC-445F30BB758F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4169466" y="2115378"/>
+          <a:ext cx="844826" cy="6626"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>610980</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>610980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Gerader Verbinder 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F9EDC4-B978-4364-A699-4AF127470731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13150850" y="2400300"/>
+          <a:ext cx="0" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1380</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Gerader Verbinder 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9460844-319C-4123-9986-CA46789C5641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13303250" y="2552700"/>
+          <a:ext cx="0" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Gerader Verbinder 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BFA454-B353-41A9-97ED-1B8CF666CBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5541065" y="2733260"/>
+          <a:ext cx="0" cy="414131"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>610980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>186359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>617330</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Gerade Verbindung mit Pfeil 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6BF237-776F-4DAE-BB97-CC3CDB6CE89C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13150850" y="2762250"/>
+          <a:ext cx="6350" cy="368301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Gerade Verbindung mit Pfeil 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3182C114-C2BD-4107-AC81-4C9C7A8341D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4837043" y="3279913"/>
+          <a:ext cx="0" cy="244062"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Gerader Verbinder 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0381366C-9878-4DFA-AB27-AAB1C178CD50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4828760" y="3279913"/>
+          <a:ext cx="215349" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1709,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61C43A-84C4-408D-9614-9F76D5833E59}">
-  <dimension ref="B1:U31"/>
+  <dimension ref="B1:V31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,27 +2104,27 @@
     <col min="1" max="30" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:22" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1750,17 +2134,23 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="V10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="V11" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>12</v>
       </c>
@@ -1778,54 +2168,69 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C36CEB8-2F2E-4345-92D0-E566548E24B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E2C25-FCE2-4B87-8386-19E9A8F2D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="630" windowWidth="20655" windowHeight="13650" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>ort.conf</t>
-  </si>
-  <si>
-    <t>native-scan-results/*</t>
-  </si>
-  <si>
-    <t>downloads/*</t>
   </si>
   <si>
     <t>scan-result.yml</t>
@@ -100,16 +94,41 @@
     <t>OSCake.log</t>
   </si>
   <si>
-    <t>scannerArchive/*</t>
-  </si>
-  <si>
     <t>scannerStorage/*</t>
   </si>
   <si>
     <t>(see ort.conf)</t>
   </si>
   <si>
-    <t>(curation directory+store)</t>
+    <t>scannerArchive/</t>
+  </si>
+  <si>
+    <t>(curation directory; scan-results-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cache; source codes directory)</t>
+  </si>
+  <si>
+    <r>
+      <t>native-scan-results/</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)</t>
+    </r>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -168,17 +187,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -755,14 +776,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>172001</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>178351</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>177801</xdr:rowOff>
     </xdr:to>
@@ -779,8 +800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13150850" y="2762250"/>
-          <a:ext cx="6350" cy="361951"/>
+          <a:off x="4495523" y="3163957"/>
+          <a:ext cx="6350" cy="376583"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -863,14 +884,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -884,9 +905,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2401957" y="2741543"/>
-          <a:ext cx="3155673" cy="24848"/>
+        <a:xfrm>
+          <a:off x="2401957" y="2774674"/>
+          <a:ext cx="2087217" cy="8283"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1014,16 +1035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>172001</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>172001</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:rowOff>188568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1038,8 +1059,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13150850" y="2400300"/>
-          <a:ext cx="0" cy="184151"/>
+          <a:off x="4495523" y="2772741"/>
+          <a:ext cx="0" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1485,16 +1506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>610980</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>610980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>14910</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>72611</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>72611</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1509,7 +1530,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13150850" y="2400300"/>
+          <a:off x="8040481" y="1944757"/>
           <a:ext cx="0" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1536,16 +1557,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>1380</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59359</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>167309</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>1380</xdr:colOff>
+      <xdr:rowOff>1657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59359</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>167310</xdr:rowOff>
+      <xdr:rowOff>1658</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1560,7 +1581,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13303250" y="2552700"/>
+          <a:off x="8027229" y="2395331"/>
           <a:ext cx="0" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1587,67 +1608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Gerader Verbinder 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BFA454-B353-41A9-97ED-1B8CF666CBC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5541065" y="2733260"/>
-          <a:ext cx="0" cy="414131"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>610980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>186359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>617330</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>64328</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>70678</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>173660</xdr:rowOff>
+      <xdr:rowOff>181943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1662,7 +1632,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13150850" y="2762250"/>
+          <a:off x="8032198" y="2778816"/>
           <a:ext cx="6350" cy="368301"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1671,110 +1641,6 @@
         <a:ln w="22225">
           <a:tailEnd type="arrow" w="lg" len="lg"/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186084</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Gerade Verbindung mit Pfeil 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3182C114-C2BD-4107-AC81-4C9C7A8341D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4837043" y="3279913"/>
-          <a:ext cx="0" cy="244062"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225">
-          <a:tailEnd type="arrow" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>132523</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Gerader Verbinder 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0381366C-9878-4DFA-AB27-AAB1C178CD50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4828760" y="3279913"/>
-          <a:ext cx="215349" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2093,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61C43A-84C4-408D-9614-9F76D5833E59}">
-  <dimension ref="B1:V31"/>
+  <dimension ref="B1:W31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,29 +1970,29 @@
     <col min="1" max="30" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2134,115 +2000,118 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="V10" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="5" t="s">
-        <v>19</v>
+      <c r="T11" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="M15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="V16" t="s">
-        <v>17</v>
+    <row r="16" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U16" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="V17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>20</v>
+    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:22" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
       </c>
+      <c r="N31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:U15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0E2C25-FCE2-4B87-8386-19E9A8F2D270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCCD05A-A434-4FF3-A71D-D3D81E7CD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>(curation directory; scan-results-)</t>
   </si>
   <si>
-    <t xml:space="preserve"> cache; source codes directory)</t>
-  </si>
-  <si>
     <r>
       <t>native-scan-results/</t>
     </r>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cache; source codes cache)</t>
   </si>
 </sst>
 </file>
@@ -219,6 +219,60 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165653</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Gerade Verbindung mit Pfeil 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B934A5D5-08D0-431B-A183-C4A80044C1E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4961283" y="4174435"/>
+          <a:ext cx="728870" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1244,15 +1298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>230533</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>230533</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>74267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1267,8 +1321,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13938250" y="3867150"/>
-          <a:ext cx="0" cy="1003300"/>
+          <a:off x="4554055" y="4315239"/>
+          <a:ext cx="0" cy="885963"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1295,15 +1349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>230533</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>93317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>230533</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>93317</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1318,8 +1372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13176250" y="4705350"/>
-          <a:ext cx="762000" cy="0"/>
+          <a:off x="4313859" y="5029752"/>
+          <a:ext cx="240196" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1348,15 +1402,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>236883</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>80617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>236883</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>80617</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1371,8 +1425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13182600" y="4876800"/>
-          <a:ext cx="762000" cy="0"/>
+          <a:off x="4320209" y="5207552"/>
+          <a:ext cx="240196" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1639,6 +1693,386 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="Gruppieren 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CE971A-1954-47A7-A440-F39FC53BE221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5673587" y="3429000"/>
+          <a:ext cx="1118152" cy="571499"/>
+          <a:chOff x="5673587" y="3429000"/>
+          <a:chExt cx="1118152" cy="571499"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="Flussdiagramm: Magnetplattenspeicher 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5E0765-2E3F-4612-8736-7572D9D3D87E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5673588" y="3429000"/>
+            <a:ext cx="1101586" cy="513522"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-AT" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="Textfeld 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6ED313-FA18-486F-85F3-815990CD1189}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5673587" y="3544955"/>
+            <a:ext cx="1118152" cy="455544"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1100"/>
+              <a:t>Source-Codes Cache</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>115955</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Gruppieren 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC2A1D9-3BC6-4697-B7E2-B39AEFA959B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5673587" y="4041913"/>
+          <a:ext cx="1118152" cy="571499"/>
+          <a:chOff x="5673587" y="4041913"/>
+          <a:chExt cx="1118152" cy="571499"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Flussdiagramm: Magnetplattenspeicher 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBF6734-F683-440D-983A-1E9431D4993F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5673588" y="4041913"/>
+            <a:ext cx="1101586" cy="513522"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartMagneticDisk">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-AT" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Textfeld 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98AF221-C7E2-4B0E-B364-544FDF1A2E70}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5673587" y="4157868"/>
+            <a:ext cx="1118152" cy="455544"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="de-AT" sz="1100"/>
+              <a:t>Scan-Results Cache</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>183597</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>189947</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77582</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Gerade Verbindung mit Pfeil 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D775FA2C-11C2-416B-B42F-4FFA356D9472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8151467" y="3453020"/>
+          <a:ext cx="6350" cy="368301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149084</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Gerade Verbindung mit Pfeil 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11C91BC6-9EF1-4B4C-82B5-DE0AE7D86ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4969565" y="3698180"/>
+          <a:ext cx="695739" cy="4143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:headEnd type="arrow" w="lg" len="lg"/>
           <a:tailEnd type="arrow" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
@@ -1962,7 +2396,7 @@
   <dimension ref="B1:W31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2064,7 +2498,7 @@
     </row>
     <row r="22" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2105,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" t="s">
         <v>21</v>
-      </c>
-      <c r="O31" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCCD05A-A434-4FF3-A71D-D3D81E7CD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665E8A3-414A-4151-ADF0-BE4C24D6EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -125,10 +125,13 @@
     <t>2)</t>
   </si>
   <si>
-    <t>optional</t>
+    <t xml:space="preserve"> cache; source codes cache)</t>
   </si>
   <si>
-    <t xml:space="preserve"> cache; source codes cache)</t>
+    <t>optional: if present, the scan results are copied into the</t>
+  </si>
+  <si>
+    <t>Scan-Results Cache, otherwise the cache is used directly.</t>
   </si>
 </sst>
 </file>
@@ -2393,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61C43A-84C4-408D-9614-9F76D5833E59}">
-  <dimension ref="B1:W31"/>
+  <dimension ref="B1:W32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,7 +2501,7 @@
     </row>
     <row r="22" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -2542,7 +2545,12 @@
         <v>20</v>
       </c>
       <c r="O31" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665E8A3-414A-4151-ADF0-BE4C24D6EDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548C86C-88D9-4735-867F-763EE082699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="5985" yWindow="405" windowWidth="20175" windowHeight="14205" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$4:$AA$45</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -103,9 +106,6 @@
     <t>scannerArchive/</t>
   </si>
   <si>
-    <t>(curation directory; scan-results-)</t>
-  </si>
-  <si>
     <r>
       <t>native-scan-results/</t>
     </r>
@@ -125,13 +125,56 @@
     <t>2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> cache; source codes cache)</t>
-  </si>
-  <si>
     <t>optional: if present, the scan results are copied into the</t>
   </si>
   <si>
     <t>Scan-Results Cache, otherwise the cache is used directly.</t>
+  </si>
+  <si>
+    <t>(scan-results-cache, )</t>
+  </si>
+  <si>
+    <t>source codes cache, etc.)</t>
+  </si>
+  <si>
+    <t>OSCake-Report_dedup.oscc</t>
+  </si>
+  <si>
+    <t>[project]_dedup.zip</t>
+  </si>
+  <si>
+    <t>OSCake-Report_merged.oscc</t>
+  </si>
+  <si>
+    <t>[project]_merged.zip</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>may consist of multiple Reporter output files</t>
+  </si>
+  <si>
+    <t>new cid (IVY-Format)</t>
+  </si>
+  <si>
+    <t>inputFile</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inputFolder </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -224,16 +267,377 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47765</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>49698</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Gerader Verbinder 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7567E2B5-2EAC-4CAB-817C-EFFF8E670BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3410504" y="7454347"/>
+          <a:ext cx="1933" cy="323021"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22916</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24849</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Gerader Verbinder 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EBA1405-A52B-4848-8754-AF4B9A62D26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223894" y="7454347"/>
+          <a:ext cx="1933" cy="323021"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>10216</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Gerade Verbindung mit Pfeil 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4963841-E645-41C9-A85F-97BF6C3BCCEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1217544" y="7771289"/>
+          <a:ext cx="233846" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231914</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Gerader Verbinder 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747FA861-3224-4B25-84DC-D704E0179245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594653" y="5680215"/>
+          <a:ext cx="240195" cy="1655"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238263</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Gerader Verbinder 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E74CDE-574B-4191-9CFB-DA29B77D581D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2159828" y="5938631"/>
+          <a:ext cx="1933" cy="323021"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Gerader Verbinder 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A880BC1E-017F-45FA-B41E-C8E9FBD20D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4547152" y="3834848"/>
+          <a:ext cx="8283" cy="612912"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91106</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Gerader Verbinder 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C509CC3-093A-4C69-8D20-E408A0F81AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2161761" y="3892825"/>
+          <a:ext cx="8282" cy="530085"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>165653</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -247,9 +651,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4961283" y="4174435"/>
-          <a:ext cx="728870" cy="8282"/>
+        <a:xfrm flipV="1">
+          <a:off x="4961283" y="3801717"/>
+          <a:ext cx="480391" cy="8281"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -278,10 +682,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1524000" cy="552449"/>
     <xdr:sp macro="" textlink="">
@@ -297,7 +701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="552450"/>
+          <a:off x="2642152" y="1027043"/>
           <a:ext cx="1524000" cy="552449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -350,7 +754,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -422,10 +826,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3048000" cy="736599"/>
     <xdr:sp macro="" textlink="">
@@ -441,7 +845,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="3130551"/>
+          <a:off x="1921565" y="3388140"/>
           <a:ext cx="3048000" cy="736599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -494,16 +898,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>78964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>75923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157372</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -518,8 +922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1694070" y="3504924"/>
-          <a:ext cx="70126" cy="1017380"/>
+          <a:off x="1760334" y="3049380"/>
+          <a:ext cx="78408" cy="1100207"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -553,13 +957,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -612,16 +1016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31198</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101048</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>169517</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -636,8 +1040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5340350" y="596900"/>
-          <a:ext cx="69850" cy="501650"/>
+          <a:off x="1712568" y="1088058"/>
+          <a:ext cx="69850" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -671,14 +1075,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -698,8 +1102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10668000" y="1079499"/>
-          <a:ext cx="0" cy="577851"/>
+          <a:off x="3404152" y="1579492"/>
+          <a:ext cx="0" cy="424899"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -727,16 +1131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>6349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -750,9 +1154,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7620000" y="2768599"/>
-          <a:ext cx="6350" cy="361951"/>
+        <a:xfrm>
+          <a:off x="2408307" y="3170306"/>
+          <a:ext cx="1932" cy="233846"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -780,32 +1184,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>178351</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
+      <xdr:rowOff>33131</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Gerade Verbindung mit Pfeil 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A68420-5C92-453D-8101-7583CDCA8FC7}"/>
+        <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CFCC08-CC73-4EEF-A700-5DD071A8B15F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10668000" y="2762250"/>
-          <a:ext cx="6350" cy="361951"/>
+        <a:xfrm>
+          <a:off x="4501873" y="3163957"/>
+          <a:ext cx="3866" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -833,68 +1237,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>178351</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177801</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Gerade Verbindung mit Pfeil 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CFCC08-CC73-4EEF-A700-5DD071A8B15F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4495523" y="3163957"/>
-          <a:ext cx="6350" cy="376583"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225">
-          <a:tailEnd type="arrow" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -939,16 +1290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -963,7 +1314,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2401957" y="2774674"/>
+          <a:off x="2401957" y="2658721"/>
           <a:ext cx="2087217" cy="8283"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -990,16 +1341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1014,8 +1365,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="2393950"/>
-          <a:ext cx="0" cy="184151"/>
+          <a:off x="2401957" y="2650434"/>
+          <a:ext cx="0" cy="115958"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1041,16 +1392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1065,8 +1416,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10668000" y="2393950"/>
-          <a:ext cx="0" cy="184151"/>
+          <a:off x="3362739" y="2575891"/>
+          <a:ext cx="0" cy="190501"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1092,16 +1443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>172001</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>188567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>172001</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>188568</xdr:rowOff>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172002</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1115,9 +1466,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4495523" y="2772741"/>
-          <a:ext cx="0" cy="190501"/>
+        <a:xfrm flipH="1">
+          <a:off x="4495523" y="2658717"/>
+          <a:ext cx="1934" cy="97459"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1143,66 +1494,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>184149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Gerader Verbinder 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C509CC3-093A-4C69-8D20-E408A0F81AA8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2273300" y="4038599"/>
-          <a:ext cx="12700" cy="1200151"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1247,15 +1547,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1300,67 +1600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>230533</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>230533</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74267</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Gerader Verbinder 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A880BC1E-017F-45FA-B41E-C8E9FBD20D59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4554055" y="4315239"/>
-          <a:ext cx="0" cy="885963"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="22225"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>230533</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>230533</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93317</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109879</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1375,7 +1624,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4313859" y="5029752"/>
+          <a:off x="4313859" y="4797836"/>
           <a:ext cx="240196" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1404,16 +1653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>236883</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>236883</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>80617</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104361</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>344557</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64052</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1428,7 +1677,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4320209" y="5207552"/>
+          <a:off x="8072231" y="4188791"/>
           <a:ext cx="240196" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1457,16 +1706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>483428</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>717274</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161511</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1481,8 +1730,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266950" y="4502150"/>
-          <a:ext cx="247650" cy="0"/>
+          <a:off x="7689298" y="4658968"/>
+          <a:ext cx="233846" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1510,13 +1759,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>86140</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>210379</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>117613</xdr:rowOff>
@@ -1563,13 +1812,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>72611</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>130866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>72611</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130867</xdr:rowOff>
@@ -1614,16 +1863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>59359</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>59359</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1658</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1665,15 +1914,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>64328</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>70678</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>70678</xdr:colOff>
-      <xdr:row>14</xdr:row>
       <xdr:rowOff>181943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1718,16 +1967,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74540</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1742,8 +1991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5673587" y="3429000"/>
-          <a:ext cx="1118152" cy="571499"/>
+          <a:off x="5184913" y="3056280"/>
+          <a:ext cx="1118151" cy="571499"/>
           <a:chOff x="5673587" y="3429000"/>
           <a:chExt cx="1118152" cy="571499"/>
         </a:xfrm>
@@ -1854,16 +2103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>115955</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1878,8 +2127,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5673587" y="4041913"/>
-          <a:ext cx="1118152" cy="571499"/>
+          <a:off x="5184913" y="3669193"/>
+          <a:ext cx="1118151" cy="472111"/>
           <a:chOff x="5673587" y="4041913"/>
           <a:chExt cx="1118152" cy="571499"/>
         </a:xfrm>
@@ -1990,15 +2239,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>183597</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>90281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>189947</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>77582</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2044,16 +2293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>144941</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>37268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>149084</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2064,18 +2313,1265 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4969565" y="3400007"/>
+          <a:ext cx="455543" cy="4145"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>230671</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Geschweifte Klammer rechts 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8D2444-6EAD-4FA2-B463-B745E69679DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2781715" y="4363694"/>
+          <a:ext cx="133762" cy="1392720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="552449"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Textfeld 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE12754-5F37-488A-A525-FBCD7C6B33B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2078935" y="5402747"/>
+          <a:ext cx="1524000" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Curator</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235088</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238263</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Gerade Verbindung mit Pfeil 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F512A06-BB1A-4B44-A23F-A2291B5E8946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4969565" y="3698180"/>
-          <a:ext cx="695739" cy="4143"/>
+        <a:xfrm>
+          <a:off x="2156653" y="6065073"/>
+          <a:ext cx="243371" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="22225">
-          <a:headEnd type="arrow" w="lg" len="lg"/>
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225563</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>109877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Gerade Verbindung mit Pfeil 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82863300-1040-429A-90EC-01D25C8F2DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2153478" y="6255573"/>
+          <a:ext cx="233846" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>191742</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Geschweifte Klammer rechts 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2637F0-3FDF-43AF-A5D6-062B6144452F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2791240" y="5731554"/>
+          <a:ext cx="133762" cy="1392720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="552449"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Textfeld 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875F8721-75DC-4554-B116-40C3C5FAD23E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200978" y="6926747"/>
+          <a:ext cx="1524000" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Deduplicator</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82823</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Geschweifte Klammer rechts 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD47686-E5CD-466B-B390-ECCD7544528A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1764193" y="5449957"/>
+          <a:ext cx="115957" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198779</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Gerader Verbinder 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F10106A-5A98-4571-B7E5-6785BD5F2B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2840931" y="5176631"/>
+          <a:ext cx="1855308" cy="16565"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205133</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Gerade Verbindung mit Pfeil 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF6F189-356F-4957-A4AA-1DA799EDCA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2840935" y="5118652"/>
+          <a:ext cx="6350" cy="284095"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="552449"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Textfeld 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7987951F-A635-4902-9F65-8C3D2C73B02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362739" y="6926747"/>
+          <a:ext cx="1524000" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Merger</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41415</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Gerader Verbinder 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB8E57E-CC22-4BC9-A1C3-69155DA65B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962980" y="6733767"/>
+          <a:ext cx="2178324" cy="8282"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41413</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16571</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Gerade Verbindung mit Pfeil 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18B8E3CB-6543-4B21-997E-B0728DF088FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1962978" y="6742049"/>
+          <a:ext cx="8283" cy="182218"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16571</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Gerade Verbindung mit Pfeil 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2BAAD7-C9E1-4B37-8E74-8936911736E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133022" y="6733767"/>
+          <a:ext cx="0" cy="215347"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Gerader Verbinder 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D7FF47-FBAE-4DB6-9360-5D0138242013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857499" y="6427305"/>
+          <a:ext cx="1" cy="323021"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115954</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Gerader Verbinder 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC5C107-31A5-4502-99EF-7385ACB4A432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4663109" y="5184913"/>
+          <a:ext cx="16562" cy="1424609"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207066</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Gerader Verbinder 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E2CDA2-4E1C-408C-A23A-AF61987E3DEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2849218" y="6592962"/>
+          <a:ext cx="1822173" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>41417</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157374</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Geschweifte Klammer rechts 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB9C6648-5A8B-4281-A957-8CB6E7FFEFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1002200" y="6957392"/>
+          <a:ext cx="115957" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19741</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22916</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Gerade Verbindung mit Pfeil 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E48408-0C7D-4921-97D6-BEBCAC907600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1220719" y="7580789"/>
+          <a:ext cx="243371" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44590</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47765</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Gerade Verbindung mit Pfeil 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1858DE8D-73B4-44B9-90D8-92F5193E7DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3407329" y="7580789"/>
+          <a:ext cx="243371" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>41415</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35065</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Gerade Verbindung mit Pfeil 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8667B9-A205-4D79-9C05-19A4EA7D1674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3404154" y="7771289"/>
+          <a:ext cx="233846" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Geschweifte Klammer rechts 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F553AB55-D750-4B7B-9774-88396E57F587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5118652" y="6982239"/>
+          <a:ext cx="115957" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1381</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>191879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3313</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Gerade Verbindung mit Pfeil 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0485205-1BA6-4F2A-BDA8-7E343A7E8FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3364120" y="3157053"/>
+          <a:ext cx="1932" cy="233846"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
           <a:tailEnd type="arrow" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
@@ -2396,166 +3892,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F61C43A-84C4-408D-9614-9F76D5833E59}">
-  <dimension ref="B1:W32"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="30" width="3.5703125" customWidth="1"/>
+    <col min="1" max="29" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="J8" s="2" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="T11" t="s">
+      <c r="S11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T12" s="4" t="s">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I15" t="s">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="R35" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="S15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="N44" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U16" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="L27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O32" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9548C86C-88D9-4735-867F-763EE082699E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BB2C3-A251-4884-AE56-864783842D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="405" windowWidth="20175" windowHeight="14205" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$A$4:$AA$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -176,12 +176,15 @@
       <t>3)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,19 +243,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -267,13 +278,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>47765</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>49698</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
@@ -318,13 +329,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>24849</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
@@ -369,13 +380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>10216</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
@@ -422,13 +433,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>231914</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>106019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
@@ -475,13 +486,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>238263</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
@@ -526,13 +537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>223630</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
@@ -577,13 +588,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>140803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>91106</xdr:rowOff>
@@ -628,13 +639,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>57976</xdr:rowOff>
@@ -682,7 +693,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -754,7 +765,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -826,7 +837,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25401</xdr:rowOff>
@@ -898,13 +909,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>78964</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>75923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>157372</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -957,13 +968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1016,13 +1027,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>31198</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>61015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>101048</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>169517</xdr:rowOff>
@@ -1075,13 +1086,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>146601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1131,13 +1142,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
@@ -1184,13 +1195,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>178351</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
@@ -1237,13 +1248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1290,13 +1301,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>74547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>82830</xdr:rowOff>
@@ -1341,13 +1352,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
@@ -1392,13 +1403,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
@@ -1443,13 +1454,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>172001</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>173935</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>172002</xdr:rowOff>
@@ -1494,13 +1505,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1547,13 +1558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1600,16 +1611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>230533</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>109879</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>230533</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>109879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>230533</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109879</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1653,13 +1664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>104361</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>64052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>344557</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>64052</xdr:rowOff>
@@ -1706,13 +1717,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>483428</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>161511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>717274</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>161511</xdr:rowOff>
@@ -1759,13 +1770,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>86140</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>210379</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>117613</xdr:rowOff>
@@ -1812,13 +1823,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>72611</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>130866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>72611</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130867</xdr:rowOff>
@@ -1863,13 +1874,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>59359</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>59359</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1914,13 +1925,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>64328</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>4142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>70678</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>181943</xdr:rowOff>
@@ -1967,13 +1978,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>82823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>57977</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>74540</xdr:rowOff>
@@ -1991,8 +2002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5184913" y="3056280"/>
-          <a:ext cx="1118151" cy="571499"/>
+          <a:off x="5903429" y="3054623"/>
+          <a:ext cx="1107798" cy="563217"/>
           <a:chOff x="5673587" y="3429000"/>
           <a:chExt cx="1118152" cy="571499"/>
         </a:xfrm>
@@ -2103,13 +2114,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>115954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>57977</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2127,8 +2138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5184913" y="3669193"/>
-          <a:ext cx="1118151" cy="472111"/>
+          <a:off x="5903429" y="3659254"/>
+          <a:ext cx="1107798" cy="455546"/>
           <a:chOff x="5673587" y="4041913"/>
           <a:chExt cx="1118152" cy="571499"/>
         </a:xfrm>
@@ -2239,13 +2250,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>183597</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>90281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>189947</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>77582</xdr:rowOff>
@@ -2293,13 +2304,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>37268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>140804</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
@@ -2349,13 +2360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>230671</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>56738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2408,7 +2419,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -2480,13 +2491,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>235088</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>238263</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
@@ -2533,13 +2544,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>225563</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
@@ -2586,13 +2597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>24837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>191742</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>158599</xdr:rowOff>
@@ -2645,7 +2656,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -2717,13 +2728,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>82823</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>198780</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
@@ -2776,13 +2787,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>198779</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>132522</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
@@ -2827,13 +2838,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>198783</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>205133</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -2882,7 +2893,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
@@ -2954,13 +2965,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>41415</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>24853</xdr:rowOff>
@@ -3005,13 +3016,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>24853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
@@ -3058,13 +3069,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
@@ -3111,13 +3122,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>215347</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>215348</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
@@ -3162,13 +3173,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>99392</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>115954</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
@@ -3213,13 +3224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>207066</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>66266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>66266</xdr:rowOff>
@@ -3264,13 +3275,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>41417</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>157374</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
@@ -3323,13 +3334,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19741</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
@@ -3376,13 +3387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>44590</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>47765</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
@@ -3429,13 +3440,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>41415</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>35065</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
@@ -3482,13 +3493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
@@ -3541,13 +3552,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1381</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>191879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>3313</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28160</xdr:rowOff>
@@ -3895,231 +3906,235 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD45"/>
+  <dimension ref="B1:AE45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="3.5703125" customWidth="1"/>
+    <col min="2" max="30" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I8" s="2" t="s">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="S12" s="4" t="s">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="T12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
+    <row r="14" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="R14" s="5" t="s">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="S14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="6"/>
+      <c r="V15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="J21" t="s">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="J22" t="s">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
         <v>4</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD24" t="s">
+    <row r="23" spans="2:31" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AD25" t="s">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="26" spans="2:31" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="R35" s="1" t="s">
+    <row r="35" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="S35" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="V36" t="s">
+    <row r="36" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V38" t="s">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
         <v>24</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
         <v>25</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>29</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72BB2C3-A251-4884-AE56-864783842D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AEEFC5-68F0-4C35-BEF7-83BD2AAE0E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -179,6 +179,21 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>analyzer-results.yml</t>
+  </si>
+  <si>
+    <t>OSCake-Report_resolved.oscc</t>
+  </si>
+  <si>
+    <t>[project]_resolved.zip</t>
+  </si>
+  <si>
+    <t>OSCake-Report_selected.oscc</t>
+  </si>
+  <si>
+    <t>[project]_selected.zip</t>
+  </si>
 </sst>
 </file>
 
@@ -278,15 +293,170 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>113471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Gerader Verbinder 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5AAED1-2A8E-499E-B410-14E67A58994A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2673350" y="7839075"/>
+          <a:ext cx="0" cy="513521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>106430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Gerader Verbinder 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CBBC83-0CB7-4978-8355-C368F18A860E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="7772400"/>
+          <a:ext cx="238124" cy="1655"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Gerader Verbinder 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979D94B2-A268-4581-836E-4A0EF6A4060F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2673350" y="6696075"/>
+          <a:ext cx="0" cy="513521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>47765</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>49698</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -331,13 +501,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24849</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -382,13 +552,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10216</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -494,7 +664,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -862,12 +1032,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:pattFill prst="solidDmnd">
+          <a:fgClr>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -2420,9 +2598,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>27334</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1524000" cy="552449"/>
     <xdr:sp macro="" textlink="">
@@ -2438,14 +2616,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2078935" y="5402747"/>
+          <a:off x="2571750" y="5027959"/>
           <a:ext cx="1524000" cy="552449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2493,13 +2671,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>235088</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238263</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2546,13 +2724,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>225563</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>109877</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2599,13 +2777,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>24837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>191742</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>158599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2658,7 +2836,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1524000" cy="552449"/>
@@ -2682,7 +2860,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2839,15 +3017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:colOff>203338</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205133</xdr:colOff>
+      <xdr:colOff>209688</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>27334</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2858,14 +3036,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="41" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2840935" y="5118652"/>
-          <a:ext cx="6350" cy="284095"/>
+          <a:off x="3346588" y="4743450"/>
+          <a:ext cx="6350" cy="284509"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2895,7 +3071,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1524000" cy="552449"/>
@@ -2919,7 +3095,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:lumMod val="40000"/>
             <a:lumOff val="60000"/>
           </a:schemeClr>
@@ -2967,13 +3143,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>41415</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>24853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3018,13 +3194,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>24853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3071,13 +3247,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3122,15 +3298,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11596</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15323</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3142,12 +3318,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2857499" y="6427305"/>
-          <a:ext cx="1" cy="323021"/>
+          <a:off x="3392971" y="8429625"/>
+          <a:ext cx="3727" cy="223630"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3181,7 +3359,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115954</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3224,16 +3402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>207066</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>66266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66266</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3247,9 +3425,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2849218" y="6592962"/>
-          <a:ext cx="1822173" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="3400425" y="8686391"/>
+          <a:ext cx="1755499" cy="409"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3277,13 +3455,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>41417</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>157374</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3336,13 +3514,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19741</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3389,13 +3567,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>44590</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47765</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3442,13 +3620,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>41415</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>35065</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3495,13 +3673,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3601,6 +3779,651 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="552449"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Textfeld 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D47DF563-24DC-42D0-B0D4-9A49D58C19AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="6334125"/>
+          <a:ext cx="1524000" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Resolver</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="552449"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Textfeld 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B685F4-14C0-40EA-82B7-BAF5C8C9CC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="7477125"/>
+          <a:ext cx="1524000" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Selector</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97319</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Geschweifte Klammer rechts 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C5B6DF-B579-43A0-A1A9-AD72390EBB31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2288069" y="6326256"/>
+          <a:ext cx="74132" cy="817493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Gerade Verbindung mit Pfeil 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D950D1A1-2946-4E9F-8358-D1EBA3410586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2670175" y="7013017"/>
+          <a:ext cx="241300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Gerade Verbindung mit Pfeil 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D010514C-EC75-48CD-A8B7-C12E0E6F13A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="7203517"/>
+          <a:ext cx="231775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234812</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>31878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>188429</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Geschweifte Klammer rechts 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5410B515-1A51-4A54-983F-A79689CC3325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3287990" y="6694200"/>
+          <a:ext cx="133762" cy="1382367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Gerader Verbinder 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B810CDA1-912E-4C35-83AE-3FCF3B0739A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="6629400"/>
+          <a:ext cx="238124" cy="1655"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78268</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Geschweifte Klammer rechts 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C30DE5-DA8E-4ACD-8933-1B9C2CCCCD9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2269018" y="7516882"/>
+          <a:ext cx="115957" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Gerade Verbindung mit Pfeil 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7F4932-1615-4CD6-8717-5FDD76DA20EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2670175" y="8156017"/>
+          <a:ext cx="241300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Gerade Verbindung mit Pfeil 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A6A8B65-F83D-4682-94B7-E92D66E8FC84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="8346517"/>
+          <a:ext cx="231775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>34787</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>226529</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Geschweifte Klammer rechts 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859CA5ED-62FB-4748-A77E-085E8CC2ADC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3327948" y="7673418"/>
+          <a:ext cx="130046" cy="1382367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3906,10 +4729,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE45"/>
+  <dimension ref="B1:AE55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5:AB6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,77 +4887,136 @@
         <v>8</v>
       </c>
     </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="K32" t="s">
-        <v>2</v>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="S35" s="1" t="s">
+    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="S46" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="W36" t="s">
+    <row r="47" spans="3:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="W47" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W38" t="s">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
         <v>24</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
         <v>25</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="54" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C54" t="s">
         <v>0</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+    <row r="55" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O55" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AEEFC5-68F0-4C35-BEF7-83BD2AAE0E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6501A2-49A5-41BF-9A95-2C6FFFC4AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="3975" yWindow="465" windowWidth="23520" windowHeight="14580" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -194,6 +194,18 @@
   <si>
     <t>[project]_selected.zip</t>
   </si>
+  <si>
+    <t>OSCake-Report_injected.oscc</t>
+  </si>
+  <si>
+    <t>[project]_injected.zip</t>
+  </si>
+  <si>
+    <t>1. als pdf exportieren</t>
+  </si>
+  <si>
+    <t>2. pdf mit irfanView öffnen und als jpg speichern</t>
+  </si>
 </sst>
 </file>
 
@@ -450,13 +462,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>47765</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>49698</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -501,13 +513,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>24849</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>107672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -552,13 +564,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10216</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2836,7 +2848,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1524000" cy="552449"/>
@@ -3071,7 +3083,7 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1524000" cy="552449"/>
@@ -3143,13 +3155,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>41415</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57978</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>24853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3194,13 +3206,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>41413</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>24853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3247,13 +3259,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>16571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3300,13 +3312,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>11596</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>15323</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3359,7 +3371,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>115954</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3404,13 +3416,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3455,13 +3467,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>41417</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>157374</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3514,13 +3526,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19741</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3567,13 +3579,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>44590</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>47765</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3620,13 +3632,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>41415</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>35065</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>101593</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3673,13 +3685,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4371,13 +4383,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>34787</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>60454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>226529</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4394,6 +4406,406 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="3327948" y="7673418"/>
+          <a:ext cx="130046" cy="1382367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Gerader Verbinder 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63D643E-5F79-4EC6-8D7A-6099F8B4D2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2673350" y="7648575"/>
+          <a:ext cx="0" cy="513521"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Gerader Verbinder 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF59F8D-9CE4-4218-9D3C-EF4EEDA1EB21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="7581900"/>
+          <a:ext cx="238124" cy="1655"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="552449"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Textfeld 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC298B6A-8403-4779-8E6B-0E81E940DF59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="7286625"/>
+          <a:ext cx="1524000" cy="552449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Injector</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78268</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Geschweifte Klammer rechts 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A890294-AFA3-4AE4-BC20-F06452DCC973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2269018" y="7326382"/>
+          <a:ext cx="115957" cy="488674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Gerade Verbindung mit Pfeil 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA85B84-CEEF-4625-945F-0EA381A663F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2670175" y="7965517"/>
+          <a:ext cx="241300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>107392</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Gerade Verbindung mit Pfeil 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32503199-D1BF-48C8-98FA-39250CD6A394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="8156017"/>
+          <a:ext cx="231775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>191742</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Geschweifte Klammer rechts 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7BD5C1-B6AD-414E-807D-3602C02FB02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3293161" y="7641540"/>
           <a:ext cx="130046" cy="1382367"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -4729,10 +5141,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE55"/>
+  <dimension ref="B1:AF61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4740,12 +5152,20 @@
     <col min="2" max="30" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:32" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AF2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>33</v>
       </c>
@@ -4753,17 +5173,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4773,12 +5193,12 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>8</v>
       </c>
@@ -4786,12 +5206,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="T12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>10</v>
       </c>
@@ -4810,7 +5230,7 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -4819,7 +5239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -4897,12 +5317,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -4910,12 +5330,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>34</v>
       </c>
@@ -4923,17 +5343,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>31</v>
       </c>
@@ -4941,88 +5361,116 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="3:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="S46" s="1" t="s">
-        <v>28</v>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="47" spans="3:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="W47" t="s">
-        <v>32</v>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W49" t="s">
+      <c r="K49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="S52" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="W53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="W54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W55" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
         <v>24</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
         <v>25</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="60" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C60" t="s">
         <v>0</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="61" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
         <v>29</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O61" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6501A2-49A5-41BF-9A95-2C6FFFC4AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826BCEB-B6E2-43FF-92E5-A408262BE237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="465" windowWidth="23520" windowHeight="14580" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="2820" yWindow="2325" windowWidth="23520" windowHeight="12165" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -195,16 +195,16 @@
     <t>[project]_selected.zip</t>
   </si>
   <si>
-    <t>OSCake-Report_injected.oscc</t>
-  </si>
-  <si>
-    <t>[project]_injected.zip</t>
-  </si>
-  <si>
     <t>1. als pdf exportieren</t>
   </si>
   <si>
     <t>2. pdf mit irfanView öffnen und als jpg speichern</t>
+  </si>
+  <si>
+    <t>OSCake-Report_metadata.oscc</t>
+  </si>
+  <si>
+    <t>[project]_metadata.zip</t>
   </si>
 </sst>
 </file>
@@ -4596,15 +4596,15 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="72000" bIns="72000" rtlCol="0" anchor="ctr">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" tIns="36000" bIns="36000" rtlCol="0" anchor="ctr">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="de-DE" sz="1600"/>
-            <a:t>Injector</a:t>
+            <a:rPr lang="de-DE" sz="1400"/>
+            <a:t>MetaData-Manager</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5143,8 +5143,8 @@
   </sheetPr>
   <dimension ref="B1:AF61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD41" sqref="AD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,12 +5157,12 @@
         <v>13</v>
       </c>
       <c r="AF1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AF2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
@@ -5396,12 +5396,12 @@
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A826BCEB-B6E2-43FF-92E5-A408262BE237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6A7E0-82F6-4033-AD3D-E495856D91BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2325" windowWidth="23520" windowHeight="12165" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>may contain an optional file: ".ort.yml"</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Overview: ORT - OSCakeReporter</t>
   </si>
   <si>
-    <t>OSCake.log</t>
-  </si>
-  <si>
     <t>scannerStorage/*</t>
   </si>
   <si>
@@ -123,12 +120,6 @@
   </si>
   <si>
     <t>2)</t>
-  </si>
-  <si>
-    <t>optional: if present, the scan results are copied into the</t>
-  </si>
-  <si>
-    <t>Scan-Results Cache, otherwise the cache is used directly.</t>
   </si>
   <si>
     <t>(scan-results-cache, )</t>
@@ -206,6 +197,21 @@
   <si>
     <t>[project]_metadata.zip</t>
   </si>
+  <si>
+    <t>OSCake.log|.csv</t>
+  </si>
+  <si>
+    <t>native-scan-results</t>
+  </si>
+  <si>
+    <t>if scannerRaw-directory contains files, they are</t>
+  </si>
+  <si>
+    <t>copied to the native-scan-results directory and</t>
+  </si>
+  <si>
+    <t>then processed.</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,6 +290,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -461,15 +470,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>47765</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>165651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>49698</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>107672</xdr:rowOff>
+      <xdr:colOff>47765</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -483,9 +492,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3410504" y="7454347"/>
-          <a:ext cx="1933" cy="323021"/>
+        <a:xfrm flipH="1">
+          <a:off x="3895725" y="10557426"/>
+          <a:ext cx="9665" cy="510624"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -511,16 +520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>22916</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>165651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>24849</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>107672</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -534,9 +543,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1223894" y="7454347"/>
-          <a:ext cx="1933" cy="323021"/>
+        <a:xfrm flipH="1">
+          <a:off x="1733550" y="10557426"/>
+          <a:ext cx="3866" cy="510624"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -586,8 +595,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1217544" y="7771289"/>
-          <a:ext cx="233846" cy="0"/>
+          <a:off x="1731066" y="10874368"/>
+          <a:ext cx="231775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -719,14 +728,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>61705</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>69988</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:to>
@@ -743,8 +752,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4547152" y="3834848"/>
-          <a:ext cx="8283" cy="612912"/>
+          <a:off x="5348080" y="3816626"/>
+          <a:ext cx="8283" cy="604630"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1801,14 +1810,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>230533</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68608</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>109879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>230533</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68608</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>109879</xdr:rowOff>
     </xdr:to>
@@ -1825,8 +1834,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4313859" y="4797836"/>
-          <a:ext cx="240196" cy="0"/>
+          <a:off x="5116858" y="4415179"/>
+          <a:ext cx="238125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2192,7 +2201,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5903429" y="3054623"/>
+          <a:off x="6008204" y="3054623"/>
           <a:ext cx="1107798" cy="563217"/>
           <a:chOff x="5673587" y="3429000"/>
           <a:chExt cx="1118152" cy="571499"/>
@@ -2328,7 +2337,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5903429" y="3659254"/>
+          <a:off x="6008204" y="3659254"/>
           <a:ext cx="1107798" cy="455546"/>
           <a:chOff x="5673587" y="4041913"/>
           <a:chExt cx="1118152" cy="571499"/>
@@ -2983,10 +2992,10 @@
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3001,8 +3010,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2840931" y="5176631"/>
-          <a:ext cx="1855308" cy="16565"/>
+          <a:off x="3342029" y="4793146"/>
+          <a:ext cx="2125321" cy="7454"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3363,14 +3372,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>99392</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>166067</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>115954</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182629</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
@@ -3387,8 +3396,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4663109" y="5184913"/>
-          <a:ext cx="16562" cy="1424609"/>
+          <a:off x="5452442" y="4801428"/>
+          <a:ext cx="16562" cy="4854023"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3417,13 +3426,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>66266</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>107674</xdr:colOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3437,9 +3446,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3400425" y="8686391"/>
-          <a:ext cx="1755499" cy="409"/>
+        <a:xfrm>
+          <a:off x="3400425" y="9639300"/>
+          <a:ext cx="2066925" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3940,7 +3949,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>97319</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>182631</xdr:rowOff>
     </xdr:from>
@@ -3948,7 +3957,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3963,8 +3972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2288069" y="6326256"/>
-          <a:ext cx="74132" cy="817493"/>
+          <a:off x="2295525" y="6135756"/>
+          <a:ext cx="66676" cy="941319"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -4836,6 +4845,112 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7041</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>691</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Gerade Verbindung mit Pfeil 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ECC768-8D92-4648-ACFE-CC8E1701D8F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1721541" y="11064868"/>
+          <a:ext cx="231775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41829</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>35479</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>94139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Gerade Verbindung mit Pfeil 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FADE46A-8BE5-4368-BAA8-06A5530B9CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3899454" y="11057414"/>
+          <a:ext cx="231775" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:tailEnd type="arrow" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5141,15 +5256,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF61"/>
+  <dimension ref="B1:AF62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD41" sqref="AD41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="30" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="30" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -5157,17 +5273,17 @@
         <v>13</v>
       </c>
       <c r="AF1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AF2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5203,12 +5319,12 @@
         <v>8</v>
       </c>
       <c r="T11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="T12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
@@ -5216,14 +5332,14 @@
         <v>10</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
@@ -5236,7 +5352,7 @@
       </c>
       <c r="T15" s="6"/>
       <c r="V15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
@@ -5251,12 +5367,12 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
@@ -5268,13 +5384,14 @@
       <c r="K21" t="s">
         <v>5</v>
       </c>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="K22" t="s">
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:31" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5296,10 +5413,10 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
@@ -5324,10 +5441,10 @@
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q34" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
@@ -5337,15 +5454,18 @@
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
       <c r="K37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
@@ -5355,10 +5475,10 @@
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q40" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
@@ -5368,12 +5488,12 @@
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
@@ -5383,10 +5503,10 @@
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q46" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
@@ -5396,22 +5516,22 @@
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="S52" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="W53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -5424,23 +5544,31 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="P56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P57" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -5451,21 +5579,26 @@
         <v>0</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O60" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O61" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6A7E0-82F6-4033-AD3D-E495856D91BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792C03A-50DB-4DD3-B733-031FE5FF3DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="1860" yWindow="1905" windowWidth="21795" windowHeight="12165" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$4:$AB$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5258,8 +5258,8 @@
   </sheetPr>
   <dimension ref="B1:AF62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5603,7 +5603,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/images/overview.xlsx
+++ b/docs/images/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\reinhardt\firma\Hasenzagl\Magenta\working\oscake-documentation\docs\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D792C03A-50DB-4DD3-B733-031FE5FF3DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6102BE51-7D3B-4212-8DDF-DF24E5A3A4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1905" windowWidth="21795" windowHeight="12165" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74579933-400F-4051-B20C-7F9D550BA588}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>new cid (IVY-Format)</t>
   </si>
   <si>
-    <t>inputFile</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">inputFolder </t>
     </r>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>then processed.</t>
+  </si>
+  <si>
+    <t>inputFolder</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348080" y="3816626"/>
+          <a:off x="5452855" y="3816626"/>
           <a:ext cx="8283" cy="604630"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1834,7 +1834,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5116858" y="4415179"/>
+          <a:off x="5221633" y="4415179"/>
           <a:ext cx="238125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5258,8 +5258,8 @@
   </sheetPr>
   <dimension ref="B1:AF62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AB62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5273,17 +5273,17 @@
         <v>13</v>
       </c>
       <c r="AF1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="AF2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5391,7 +5391,7 @@
         <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:31" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
@@ -5441,10 +5441,10 @@
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
@@ -5454,18 +5454,18 @@
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
         <v>31</v>
-      </c>
-      <c r="K36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
@@ -5475,10 +5475,10 @@
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
@@ -5488,12 +5488,12 @@
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.25">
@@ -5503,10 +5503,10 @@
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
@@ -5516,12 +5516,12 @@
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
     </row>
     <row r="53" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="W53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -5565,10 +5565,10 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>18</v>
       </c>
       <c r="O60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
@@ -5593,12 +5593,12 @@
         <v>26</v>
       </c>
       <c r="O61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="O62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
